--- a/07-Version List/Car Details.xlsx
+++ b/07-Version List/Car Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSR Collection\CSR2-Racing-Collection\07-Version List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C6F98-F4F5-44E2-B219-ABDCB901D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB879E-058F-4BC0-9382-CC45A11C2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Car Details" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Elite Cars Level 50'!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6757,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0F13E-043F-48EA-B4D2-0F4DBC320A7E}">
   <dimension ref="A1:I769"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C655" sqref="C655:C656"/>
     </sheetView>
@@ -6767,7 +6766,7 @@
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.109375" style="6" bestFit="1" customWidth="1"/>
@@ -8858,7 +8857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1111</v>
       </c>
@@ -25890,7 +25889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A1C34-1AF1-49F7-B1CD-2252F9E48DC7}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>

--- a/07-Version List/Car Details.xlsx
+++ b/07-Version List/Car Details.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSR Collection\CSR2-Racing-Collection\07-Version List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB879E-058F-4BC0-9382-CC45A11C2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16263986-EB74-4CE2-AFE8-1C2BD7E157D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Car Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Car Brands" sheetId="3" r:id="rId2"/>
-    <sheet name="Elite Cars Level 0" sheetId="6" r:id="rId3"/>
-    <sheet name="Elite Cars Level 50" sheetId="10" r:id="rId4"/>
+    <sheet name="Elite Cars Level 0" sheetId="6" r:id="rId2"/>
+    <sheet name="Elite Cars Level 50" sheetId="10" r:id="rId3"/>
+    <sheet name="Car Brands" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Car Details'!$A$1:$I$760</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Elite Cars Level 50'!$A$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elite Cars Level 50'!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -6756,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0F13E-043F-48EA-B4D2-0F4DBC320A7E}">
   <dimension ref="A1:I769"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C655" sqref="C655:C656"/>
     </sheetView>
@@ -25539,353 +25539,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E5CDE-DE05-4242-A23E-41D0A65C4679}">
-  <dimension ref="A1:A65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:G14">
-    <sortCondition ref="D1:D14"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A1C34-1AF1-49F7-B1CD-2252F9E48DC7}">
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -27464,7 +27117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D14FE8-5ABD-4972-BE99-B5A012ED9974}">
   <dimension ref="A1:J55"/>
   <sheetViews>
@@ -29060,4 +28713,351 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E5CDE-DE05-4242-A23E-41D0A65C4679}">
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:G14">
+    <sortCondition ref="D1:D14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07-Version List/Car Details.xlsx
+++ b/07-Version List/Car Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSR Collection\CSR2-Racing-Collection\07-Version List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21319680-6575-4099-BF39-08B8FB8A34E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0304F7BE-E341-4BE9-A588-72A5B32F6938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
   </bookViews>
@@ -4734,19 +4734,19 @@
     <t>BMW_M3TouringRewardRecycled_2022</t>
   </si>
   <si>
-    <t>BMW M3 Touring (G81) Competition</t>
-  </si>
-  <si>
     <t>Chevrolet 2023 Corvette Z06 'Z07 Package'</t>
   </si>
   <si>
-    <t>Bentley Continental GT3 Pikes Peak Race Car</t>
-  </si>
-  <si>
-    <t>Pagani Utopia</t>
-  </si>
-  <si>
-    <t>Porsche RWB 911 (F-Series) Narro Style</t>
+    <t>Continental GT3 Pikes Peak Race Car</t>
+  </si>
+  <si>
+    <t>M3 Touring (G81) Competition</t>
+  </si>
+  <si>
+    <t>Utopia</t>
+  </si>
+  <si>
+    <t>RWB 911 (F-Series) NARRO STYLE</t>
   </si>
 </sst>
 </file>
@@ -6921,8 +6921,8 @@
   <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C681" sqref="C681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9005,7 +9005,7 @@
         <v>1520</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="2" t="s">
@@ -9559,7 +9559,7 @@
         <v>1523</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="2" t="s">
@@ -9583,7 +9583,7 @@
         <v>1524</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D110" s="7"/>
       <c r="F110" s="2" t="s">
@@ -11875,7 +11875,7 @@
         <v>1518</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="2" t="s">

--- a/07-Version List/Car Details.xlsx
+++ b/07-Version List/Car Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSR2-Racing-Collection\07-Version List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6F68E-6E90-4780-90D1-0327E317FA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F346619-C3B9-4922-9A9D-9532B5F0834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{D0CAF1A3-F6C7-40FA-803C-C01E5B68EEF9}"/>
   </bookViews>
@@ -8830,7 +8830,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A58" sqref="A58:J58"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
